--- a/ky/downloads/data-excel/16.7.1.1.xlsx
+++ b/ky/downloads/data-excel/16.7.1.1.xlsx
@@ -22,9 +22,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in per cent)</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>16.7.1.1 Мамлекеттик мекемелердеги кызмат орундарынын үлүшү</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -627,11 +627,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,15 +639,15 @@
     <col min="4" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -662,7 +660,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,21 +668,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>2012</v>
@@ -719,16 +717,19 @@
       <c r="N4" s="28">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="13">
         <v>2.9840004428943145</v>
@@ -763,16 +764,19 @@
       <c r="N5" s="29">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="18">
         <v>3.9275482857406896</v>
@@ -807,16 +811,19 @@
       <c r="N6" s="30">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="18">
         <v>1.5741507870753937</v>
@@ -851,16 +858,19 @@
       <c r="N7" s="30">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="30">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="13">
         <v>2.446991086751924</v>
@@ -895,16 +905,19 @@
       <c r="N8" s="29">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="29">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="18">
         <v>2.7446631549764349</v>
@@ -939,16 +952,19 @@
       <c r="N9" s="30">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
@@ -983,16 +999,19 @@
       <c r="N10" s="30">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="13">
         <v>94.569008470353765</v>
@@ -1027,16 +1046,19 @@
       <c r="N11" s="29">
         <v>92.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="18">
         <v>93.32778855928288</v>
@@ -1071,16 +1093,19 @@
       <c r="N12" s="30">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="30">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="22">
         <v>96.4</v>
@@ -1115,16 +1140,19 @@
       <c r="N13" s="31">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="31">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1135,7 +1163,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1147,7 +1175,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
